--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Gnai2-Cxcr2.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H2">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J2">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N2">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P2">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q2">
-        <v>22907.61669614</v>
+        <v>7.912284505623111</v>
       </c>
       <c r="R2">
-        <v>206168.55026526</v>
+        <v>71.21056055060801</v>
       </c>
       <c r="S2">
-        <v>0.3858524087085929</v>
+        <v>0.3592511296547695</v>
       </c>
       <c r="T2">
-        <v>0.3858524087085929</v>
+        <v>0.3592511296547696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,46 +599,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>162.399297</v>
+        <v>201.4397426666667</v>
       </c>
       <c r="H3">
-        <v>487.197891</v>
+        <v>604.3192280000001</v>
       </c>
       <c r="I3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086392</v>
       </c>
       <c r="J3">
-        <v>0.3910371682630009</v>
+        <v>0.4833500233086393</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N3">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P3">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q3">
-        <v>307.81325152677</v>
+        <v>2.733201575082223</v>
       </c>
       <c r="R3">
-        <v>2770.31926374093</v>
+        <v>24.59881417574</v>
       </c>
       <c r="S3">
-        <v>0.005184759554408004</v>
+        <v>0.1240988936538697</v>
       </c>
       <c r="T3">
-        <v>0.005184759554408003</v>
+        <v>0.1240988936538697</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>196.252094</v>
       </c>
       <c r="I4">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J4">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -679,28 +679,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N4">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P4">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q4">
-        <v>9227.60099790095</v>
+        <v>2.569506860953778</v>
       </c>
       <c r="R4">
-        <v>83048.40898110854</v>
+        <v>23.125561748584</v>
       </c>
       <c r="S4">
-        <v>0.1554283066139242</v>
+        <v>0.1166664623595495</v>
       </c>
       <c r="T4">
-        <v>0.1554283066139242</v>
+        <v>0.1166664623595495</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,40 +729,40 @@
         <v>196.252094</v>
       </c>
       <c r="I5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353791</v>
       </c>
       <c r="J5">
-        <v>0.1575168212364948</v>
+        <v>0.1569674599353792</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N5">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P5">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q5">
-        <v>123.9927271628467</v>
+        <v>0.8876046095855556</v>
       </c>
       <c r="R5">
-        <v>1115.93454446562</v>
+        <v>7.988441486269999</v>
       </c>
       <c r="S5">
-        <v>0.002088514622570642</v>
+        <v>0.04030099757582965</v>
       </c>
       <c r="T5">
-        <v>0.002088514622570642</v>
+        <v>0.04030099757582965</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H6">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I6">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J6">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N6">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P6">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q6">
-        <v>8629.944098326403</v>
+        <v>2.373799987784889</v>
       </c>
       <c r="R6">
-        <v>77669.49688493765</v>
+        <v>21.364199890064</v>
       </c>
       <c r="S6">
-        <v>0.1453614647708351</v>
+        <v>0.1077805438593793</v>
       </c>
       <c r="T6">
-        <v>0.1453614647708351</v>
+        <v>0.1077805438593794</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,46 +847,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>61.180387</v>
+        <v>60.43484133333334</v>
       </c>
       <c r="H7">
-        <v>183.541161</v>
+        <v>181.304524</v>
       </c>
       <c r="I7">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="J7">
-        <v>0.1473147096548978</v>
+        <v>0.1450120099461104</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N7">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P7">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q7">
-        <v>115.96191732367</v>
+        <v>0.8200000721577778</v>
       </c>
       <c r="R7">
-        <v>1043.65725591303</v>
+        <v>7.38000064942</v>
       </c>
       <c r="S7">
-        <v>0.001953244884062701</v>
+        <v>0.03723146608673102</v>
       </c>
       <c r="T7">
-        <v>0.001953244884062701</v>
+        <v>0.03723146608673102</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H8">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I8">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J8">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -927,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>141.0573636666666</v>
+        <v>0.03927866666666666</v>
       </c>
       <c r="N8">
-        <v>423.172091</v>
+        <v>0.117836</v>
       </c>
       <c r="O8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448212</v>
       </c>
       <c r="P8">
-        <v>0.9867410057784561</v>
+        <v>0.7432525340448213</v>
       </c>
       <c r="Q8">
-        <v>17816.52443939506</v>
+        <v>3.514087189277778</v>
       </c>
       <c r="R8">
-        <v>160348.7199545555</v>
+        <v>31.6267847035</v>
       </c>
       <c r="S8">
-        <v>0.3000988256851039</v>
+        <v>0.1595543981711228</v>
       </c>
       <c r="T8">
-        <v>0.300098825685104</v>
+        <v>0.1595543981711229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>126.3069433333333</v>
+        <v>89.46554166666668</v>
       </c>
       <c r="H9">
-        <v>378.92083</v>
+        <v>268.396625</v>
       </c>
       <c r="I9">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="J9">
-        <v>0.3041313008456065</v>
+        <v>0.2146705068098712</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>1.89541</v>
+        <v>0.01356833333333333</v>
       </c>
       <c r="N9">
-        <v>5.686230000000001</v>
+        <v>0.040705</v>
       </c>
       <c r="O9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="P9">
-        <v>0.01325899422154386</v>
+        <v>0.2567474659551788</v>
       </c>
       <c r="Q9">
-        <v>239.4034434634334</v>
+        <v>1.213898291180556</v>
       </c>
       <c r="R9">
-        <v>2154.6309911709</v>
+        <v>10.925084620625</v>
       </c>
       <c r="S9">
-        <v>0.004032475160502513</v>
+        <v>0.05511610863874838</v>
       </c>
       <c r="T9">
-        <v>0.004032475160502514</v>
+        <v>0.05511610863874839</v>
       </c>
     </row>
   </sheetData>
